--- a/1-策略开发/1-开发中的策略/1-bar回测/CTA策略开发清单.xlsx
+++ b/1-策略开发/1-开发中的策略/1-bar回测/CTA策略开发清单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>序号</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>super_combo</t>
+  </si>
+  <si>
+    <t>回测中</t>
   </si>
   <si>
     <t>super_turtle</t>
@@ -122,12 +125,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,36 +147,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,18 +190,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,24 +214,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,6 +237,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -248,53 +283,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,30 +299,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -339,13 +425,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,132 +486,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +510,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,26 +553,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,21 +603,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -598,168 +611,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +769,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -825,7 +833,7 @@
     <dxf>
       <font>
         <name val="宋体"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="2"/>
         <b val="0"/>
@@ -854,7 +862,7 @@
     <dxf>
       <font>
         <name val="宋体"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="2"/>
         <b val="0"/>
@@ -883,7 +891,7 @@
     <dxf>
       <font>
         <name val="宋体"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="2"/>
         <b val="0"/>
@@ -912,7 +920,7 @@
     <dxf>
       <font>
         <name val="宋体"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="2"/>
         <b val="0"/>
@@ -950,9 +958,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D27" totalsRowShown="0">
-  <autoFilter ref="A1:D27">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:D27"/>
   <tableColumns count="4">
     <tableColumn id="1" name="序号" dataDxfId="0"/>
     <tableColumn id="2" name="策略名称" dataDxfId="1"/>
@@ -1257,7 +1263,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1457,21 +1463,23 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" ht="20.25" spans="1:4">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" ht="20.25" spans="1:4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1481,7 +1489,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1491,7 +1499,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1501,7 +1509,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1511,7 +1519,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1521,7 +1529,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1531,7 +1539,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1541,7 +1549,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
